--- a/称重月报汇总分类.xlsx
+++ b/称重月报汇总分类.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/13_入厂煤/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_BD631F31A0A30FF8DE96365919C01896B04E0B67" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13E19F99-F74B-4527-9675-C37E07F4325B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="合并数据" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="最大供应量" sheetId="5" r:id="rId5"/>
     <sheet name="最小供应量" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="115">
   <si>
     <t>序号</t>
   </si>
@@ -96,6 +90,9 @@
     <t>大同煤矿集团北辛窑煤业有限公司（11-1火车）</t>
   </si>
   <si>
+    <t>大同煤矿集团朔煤小峪煤业有限公司（12-1宝特）</t>
+  </si>
+  <si>
     <t>晋能控股煤业集团翼城华泓煤业有限公司（2-1）</t>
   </si>
   <si>
@@ -105,18 +102,33 @@
     <t>山西焦煤霍州煤电雪坪煤业有限公司（2-1）</t>
   </si>
   <si>
+    <t>山西焦煤集团金辛达煤业（2-1）</t>
+  </si>
+  <si>
+    <t>山西焦煤物流有限责任公司（2-1）</t>
+  </si>
+  <si>
     <t>山西晋煤集团临汾晋牛煤矿投资有限公司（1-1）</t>
   </si>
   <si>
     <t>山西晋煤集团临汾晋牛煤矿投资有限公司（2-1）</t>
   </si>
   <si>
+    <t>山西煤炭运销集团莲盛有限公司（11-1火车）</t>
+  </si>
+  <si>
     <t>山西煤炭运销集团四明山煤业有限公司（2-1）</t>
   </si>
   <si>
     <t>山西煤炭运销集团野川有限公司（2-1）</t>
   </si>
   <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿（11-1宝特）</t>
+  </si>
+  <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿（12-1宝特）</t>
+  </si>
+  <si>
     <t>太原煤气化龙泉能源（12-1宝特火车）</t>
   </si>
   <si>
@@ -156,12 +168,18 @@
     <t>大同煤矿集团北辛窑煤业有限公司</t>
   </si>
   <si>
+    <t>山西焦煤物流有限责任公司</t>
+  </si>
+  <si>
     <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
   </si>
   <si>
     <t>山西煤炭运销集团四明山煤业有限公司</t>
   </si>
   <si>
+    <t>太原煤气化股份有限公司炉峪口煤矿</t>
+  </si>
+  <si>
     <t>2025-01-大同煤矿集团朔煤小峪煤业有限公司</t>
   </si>
   <si>
@@ -195,6 +213,9 @@
     <t>2025-02-大同煤矿集团北辛窑煤业有限公司</t>
   </si>
   <si>
+    <t>2025-02-大同煤矿集团朔煤小峪煤业有限公司</t>
+  </si>
+  <si>
     <t>2025-02-晋能控股煤业集团翼城华泓煤业有限公司</t>
   </si>
   <si>
@@ -207,9 +228,15 @@
     <t>2025-02-山西焦煤集团金辛达煤业</t>
   </si>
   <si>
+    <t>2025-02-山西焦煤物流有限责任公司</t>
+  </si>
+  <si>
     <t>2025-02-山西晋煤集团临汾晋牛煤矿投资有限公司</t>
   </si>
   <si>
+    <t>2025-02-山西煤炭运销集团莲盛有限公司</t>
+  </si>
+  <si>
     <t>2025-02-山西煤炭运销集团四明山煤业有限公司</t>
   </si>
   <si>
@@ -219,6 +246,9 @@
     <t>2025-02-山西乡宁焦煤集团富康源煤业有限公司</t>
   </si>
   <si>
+    <t>2025-02-太原煤气化股份有限公司炉峪口煤矿</t>
+  </si>
+  <si>
     <t>2025-02-太原煤气化龙泉能源</t>
   </si>
   <si>
@@ -231,9 +261,6 @@
     <t>山西得得供应链管理有限公司</t>
   </si>
   <si>
-    <t>山西焦煤物流有限责任公司</t>
-  </si>
-  <si>
     <t>晋能快成物流科技有限公司</t>
   </si>
   <si>
@@ -282,13 +309,22 @@
     <t>417车</t>
   </si>
   <si>
-    <t>236车</t>
-  </si>
-  <si>
-    <t>397车</t>
-  </si>
-  <si>
-    <t>51车</t>
+    <t>986车</t>
+  </si>
+  <si>
+    <t>15车</t>
+  </si>
+  <si>
+    <t>52车</t>
+  </si>
+  <si>
+    <t>233车</t>
+  </si>
+  <si>
+    <t>909车</t>
+  </si>
+  <si>
+    <t>80车</t>
   </si>
   <si>
     <t>156车</t>
@@ -297,33 +333,48 @@
     <t>61车</t>
   </si>
   <si>
+    <t>78车</t>
+  </si>
+  <si>
+    <t>60车</t>
+  </si>
+  <si>
     <t>75车</t>
   </si>
   <si>
+    <t>130车</t>
+  </si>
+  <si>
     <t>64车</t>
   </si>
   <si>
-    <t>22车</t>
-  </si>
-  <si>
-    <t>484车</t>
-  </si>
-  <si>
-    <t>344车</t>
-  </si>
-  <si>
-    <t>399车</t>
+    <t>28车</t>
+  </si>
+  <si>
+    <t>625车</t>
+  </si>
+  <si>
+    <t>322车</t>
+  </si>
+  <si>
+    <t>374车</t>
+  </si>
+  <si>
+    <t>514车</t>
+  </si>
+  <si>
+    <t>879车</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -331,15 +382,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -385,25 +429,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -441,7 +477,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -475,7 +511,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -510,10 +545,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,14 +720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -730,22 +764,22 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>3442.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -756,22 +790,22 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H3">
         <v>5756.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -782,22 +816,22 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H4">
         <v>29184.35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -808,22 +842,22 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H5">
-        <v>2502.7600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2502.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -834,22 +868,22 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>2876.64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -860,22 +894,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <v>523.46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -886,22 +920,22 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H8">
-        <v>72967.520000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>72967.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -912,22 +946,22 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <v>266.44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -938,22 +972,22 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H10">
         <v>1394.18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -964,22 +998,22 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H11">
         <v>5264.84</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -990,22 +1024,22 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H12">
         <v>15211.08</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1016,22 +1050,22 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H13">
         <v>12060.04</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1042,22 +1076,22 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H14">
-        <v>6886.96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>28856.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1065,25 +1099,25 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H15">
-        <v>12431.74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>425.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1091,25 +1125,25 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H16">
-        <v>1580.68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1500.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1117,25 +1151,25 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H17">
-        <v>4962.66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>6664.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1143,25 +1177,25 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H18">
-        <v>1958.84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>28546.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1169,77 +1203,77 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19">
+        <v>2480.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20">
+        <v>4962.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
         <v>68</v>
       </c>
-      <c r="G19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19">
-        <v>2386.8200000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20">
-        <v>544.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H21">
-        <v>1967.76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1958.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1247,25 +1281,25 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H22">
-        <v>699.98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2485.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1273,25 +1307,25 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H23">
-        <v>14204.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1910.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1299,25 +1333,25 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H24">
-        <v>9893.8799999999992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2386.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1325,46 +1359,298 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25">
+        <v>544.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
         <v>71</v>
       </c>
-      <c r="G25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25">
-        <v>12402.83</v>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26">
+        <v>2181.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27">
+        <v>3809.76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28">
+        <v>1967.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29">
+        <v>888.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30">
+        <v>18533.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31">
+        <v>9279.440000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32">
+        <v>10732.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33">
+        <v>492.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34">
+        <v>14773.68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35">
+        <v>27072.19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1375,258 +1661,295 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>9198.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>5264.84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>1394.18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>2502.7600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2502.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>523.46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2876.64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>72967.520000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>72967.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>266.44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>29184.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>15211.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>40916.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>8590.220000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>20012.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>15266.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>18533.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>2931.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>2480.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>1910.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C12">
-        <v>18947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>9893.8799999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C20">
+        <v>4444.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>4962.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>1967.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>5991.440000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>888.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C14">
-        <v>14204.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15">
-        <v>2931.72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>1580.68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>1958.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>4962.66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>1967.76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <v>699.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21">
-        <v>12431.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22">
-        <v>12402.83</v>
+      <c r="C25">
+        <v>28546.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>27072.19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1634,132 +1957,140 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>40916.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>17788.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>20012.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>20531.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>19927.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>2931.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>4982.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>1910.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B2">
-        <v>18947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>9198.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>15158.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B10">
+        <v>4968.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>7839.299999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>1967.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>78958.96000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>1155.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>15598.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>2931.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
-        <v>4083.440000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>2482.3000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>7839.2999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10">
-        <v>1967.76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>72967.520000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>966.42000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>41616.089999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>27613.91</v>
+      <c r="B15">
+        <v>57730.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>42283.27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1770,259 +2101,295 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>4599.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>5264.84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>1394.18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>2502.7600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2502.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>523.46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2876.64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>72967.520000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>72967.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>266.44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>29184.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>15211.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>20458.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>2863.406666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>10006.035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>7633.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>18533.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>1465.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>2480.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>1910.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C12">
-        <v>9473.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>9893.8799999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C20">
+        <v>2222.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>4962.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>1967.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>2995.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>888.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C14">
-        <v>14204.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15">
-        <v>1465.86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>1580.68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>1958.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>4962.66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>1967.76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <v>699.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21">
-        <v>12431.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22">
-        <v>12402.83</v>
+      <c r="C25">
+        <v>28546.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>27072.19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2033,259 +2400,295 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>5756.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>5264.84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>1394.18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>2502.7600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2502.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>523.46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2876.64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>72967.520000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>72967.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>266.44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>29184.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>15211.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>28856.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>6664.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>10732.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>14773.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>18533.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>2386.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>2480.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>1910.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C12">
-        <v>12060.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>9893.8799999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C20">
+        <v>2485.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>4962.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>1967.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>3809.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>888.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C14">
-        <v>14204.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15">
-        <v>2386.8200000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>1580.68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>1958.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>4962.66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>1967.76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <v>699.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21">
-        <v>12431.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22">
-        <v>12402.83</v>
+      <c r="C25">
+        <v>28546.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>27072.19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2296,239 +2699,282 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>3442.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>5264.84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>1394.18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>2502.7600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2502.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>523.46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2876.64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>72967.520000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>72967.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>266.44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>29184.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>15211.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>12060.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>425.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>9279.440000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>492.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>18533.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>544.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>2480.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>1910.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C12">
-        <v>6886.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>9893.8799999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C20">
+        <v>1958.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>4962.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>1967.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>2181.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>888.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C14">
-        <v>14204.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15">
-        <v>544.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>1580.68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>1958.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>4962.66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>1967.76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <v>699.98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21">
-        <v>12431.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22">
-        <v>12402.83</v>
+      <c r="C25">
+        <v>28546.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>27072.19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/称重月报汇总分类.xlsx
+++ b/称重月报汇总分类.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="446">
   <si>
     <t>序号</t>
   </si>
@@ -378,6 +378,9 @@
     <t>大同煤矿集团北辛窑煤业有限公司2025（11-1火车）</t>
   </si>
   <si>
+    <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025（11-1）</t>
+  </si>
+  <si>
     <t>晋能控股煤业集团圣厚源煤业有限公司2025（10-1）</t>
   </si>
   <si>
@@ -882,6 +885,9 @@
     <t>2025-11-大同煤矿集团北辛窑煤业有限公司2025（11-1火车）</t>
   </si>
   <si>
+    <t>2025-11-大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025（11-1）</t>
+  </si>
+  <si>
     <t>2025-11-晋能控股煤业集团圣厚源煤业有限公司2025（10-1）</t>
   </si>
   <si>
@@ -1299,7 +1305,10 @@
     <t>1089车</t>
   </si>
   <si>
-    <t>158车</t>
+    <t>594车</t>
+  </si>
+  <si>
+    <t>126车</t>
   </si>
   <si>
     <t>231车</t>
@@ -1308,16 +1317,25 @@
     <t>55车</t>
   </si>
   <si>
-    <t>47车</t>
+    <t>163车</t>
+  </si>
+  <si>
+    <t>96车</t>
+  </si>
+  <si>
+    <t>579车</t>
   </si>
   <si>
     <t>362车</t>
   </si>
   <si>
-    <t>1431车</t>
+    <t>1596车</t>
   </si>
   <si>
     <t>145车</t>
+  </si>
+  <si>
+    <t>639车</t>
   </si>
   <si>
     <t>加权平均发热量</t>
@@ -1696,7 +1714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1742,16 +1760,16 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H2">
         <v>3442.2</v>
@@ -1771,16 +1789,16 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H3">
         <v>5756.2</v>
@@ -1800,16 +1818,16 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H4">
         <v>29184.35</v>
@@ -1829,16 +1847,16 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H5">
         <v>2502.76</v>
@@ -1858,16 +1876,16 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H6">
         <v>2876.64</v>
@@ -1887,16 +1905,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H7">
         <v>523.46</v>
@@ -1916,16 +1934,16 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H8">
         <v>72967.52</v>
@@ -1945,16 +1963,16 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H9">
         <v>266.44</v>
@@ -1974,16 +1992,16 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H10">
         <v>1394.18</v>
@@ -2003,16 +2021,16 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H11">
         <v>5264.84</v>
@@ -2032,16 +2050,16 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H12">
         <v>15211.08</v>
@@ -2061,16 +2079,16 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G13" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H13">
         <v>12060.04</v>
@@ -2090,16 +2108,16 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H14">
         <v>28856.62</v>
@@ -2119,16 +2137,16 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H15">
         <v>425.04</v>
@@ -2148,16 +2166,16 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G16" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H16">
         <v>1500.5</v>
@@ -2177,16 +2195,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H17">
         <v>6664.68</v>
@@ -2206,16 +2224,16 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G18" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H18">
         <v>32324.05</v>
@@ -2235,16 +2253,16 @@
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H19">
         <v>4964.28</v>
@@ -2264,16 +2282,16 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H20">
         <v>4962.66</v>
@@ -2293,16 +2311,16 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H21">
         <v>1958.84</v>
@@ -2322,16 +2340,16 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H22">
         <v>2485.74</v>
@@ -2351,16 +2369,16 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G23" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H23">
         <v>10428.96</v>
@@ -2380,16 +2398,16 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" t="s">
         <v>141</v>
       </c>
-      <c r="E24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" t="s">
-        <v>140</v>
-      </c>
       <c r="G24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H24">
         <v>2386.82</v>
@@ -2409,16 +2427,16 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" t="s">
         <v>141</v>
       </c>
-      <c r="E25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" t="s">
-        <v>140</v>
-      </c>
       <c r="G25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H25">
         <v>2464.5</v>
@@ -2438,16 +2456,16 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G26" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H26">
         <v>2181.68</v>
@@ -2467,16 +2485,16 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G27" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H27">
         <v>3809.76</v>
@@ -2496,16 +2514,16 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G28" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H28">
         <v>1967.76</v>
@@ -2525,16 +2543,16 @@
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H29">
         <v>888.72</v>
@@ -2554,16 +2572,16 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F30" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G30" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H30">
         <v>18533.02</v>
@@ -2583,16 +2601,16 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F31" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H31">
         <v>9279.440000000001</v>
@@ -2612,16 +2630,16 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G32" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H32">
         <v>10732.63</v>
@@ -2641,16 +2659,16 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H33">
         <v>492.9</v>
@@ -2670,16 +2688,16 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G34" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H34">
         <v>14773.68</v>
@@ -2699,16 +2717,16 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H35">
         <v>27248.69</v>
@@ -2728,16 +2746,16 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H36">
         <v>10657.6</v>
@@ -2757,16 +2775,16 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G37" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H37">
         <v>17733.2</v>
@@ -2786,16 +2804,16 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H38">
         <v>12340.99</v>
@@ -2815,16 +2833,16 @@
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G39" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H39">
         <v>7444.38</v>
@@ -2844,16 +2862,16 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G40" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H40">
         <v>1427.8</v>
@@ -2873,16 +2891,16 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G41" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H41">
         <v>2977.34</v>
@@ -2902,16 +2920,16 @@
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H42">
         <v>9552.200000000001</v>
@@ -2931,16 +2949,16 @@
         <v>54</v>
       </c>
       <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" t="s">
         <v>141</v>
       </c>
-      <c r="E43" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" t="s">
-        <v>140</v>
-      </c>
       <c r="G43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H43">
         <v>1188.36</v>
@@ -2960,16 +2978,16 @@
         <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G44" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H44">
         <v>52327.11</v>
@@ -2989,16 +3007,16 @@
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G45" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H45">
         <v>16188.74</v>
@@ -3018,16 +3036,16 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G46" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H46">
         <v>3553.6</v>
@@ -3047,16 +3065,16 @@
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G47" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H47">
         <v>10924.8</v>
@@ -3076,16 +3094,16 @@
         <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G48" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H48">
         <v>10048.06</v>
@@ -3105,16 +3123,16 @@
         <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G49" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H49">
         <v>12370.01</v>
@@ -3134,16 +3152,16 @@
         <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F50" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G50" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H50">
         <v>45154.5</v>
@@ -3163,16 +3181,16 @@
         <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G51" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H51">
         <v>9900.34</v>
@@ -3192,16 +3210,16 @@
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G52" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H52">
         <v>2442.96</v>
@@ -3221,16 +3239,16 @@
         <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G53" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H53">
         <v>9928.9</v>
@@ -3250,16 +3268,16 @@
         <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F54" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G54" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H54">
         <v>19423.88</v>
@@ -3279,16 +3297,16 @@
         <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G55" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H55">
         <v>7531.98</v>
@@ -3308,16 +3326,16 @@
         <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F56" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G56" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H56">
         <v>14025.5</v>
@@ -3337,16 +3355,16 @@
         <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G57" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H57">
         <v>3342.88</v>
@@ -3366,16 +3384,16 @@
         <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F58" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G58" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H58">
         <v>22390.22</v>
@@ -3395,16 +3413,16 @@
         <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G59" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H59">
         <v>1942.52</v>
@@ -3421,16 +3439,16 @@
         <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G60" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H60">
         <v>24035.26</v>
@@ -3450,16 +3468,16 @@
         <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F61" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G61" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H61">
         <v>35763.42</v>
@@ -3479,16 +3497,16 @@
         <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G62" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H62">
         <v>2084.88</v>
@@ -3508,16 +3526,16 @@
         <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G63" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H63">
         <v>4883.32</v>
@@ -3537,16 +3555,16 @@
         <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F64" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G64" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H64">
         <v>6214.1</v>
@@ -3566,16 +3584,16 @@
         <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F65" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G65" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H65">
         <v>19411.72</v>
@@ -3595,16 +3613,16 @@
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F66" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G66" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H66">
         <v>55.72</v>
@@ -3624,16 +3642,16 @@
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G67" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H67">
         <v>7359.58</v>
@@ -3653,16 +3671,16 @@
         <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G68" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H68">
         <v>16323.1</v>
@@ -3682,16 +3700,16 @@
         <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F69" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H69">
         <v>3636.5</v>
@@ -3711,16 +3729,16 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F70" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G70" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H70">
         <v>37144.79</v>
@@ -3740,16 +3758,16 @@
         <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F71" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G71" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H71">
         <v>20037.01</v>
@@ -3769,16 +3787,16 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H72">
         <v>1581.06</v>
@@ -3798,16 +3816,16 @@
         <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G73" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H73">
         <v>3467.38</v>
@@ -3824,16 +3842,16 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G74" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H74">
         <v>3629.18</v>
@@ -3853,16 +3871,16 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G75" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H75">
         <v>278.68</v>
@@ -3879,16 +3897,16 @@
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G76" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H76">
         <v>866.28</v>
@@ -3908,16 +3926,16 @@
         <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F77" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G77" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H77">
         <v>20408.68</v>
@@ -3937,16 +3955,16 @@
         <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G78" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H78">
         <v>10017.03</v>
@@ -3966,16 +3984,16 @@
         <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F79" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G79" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H79">
         <v>3386.52</v>
@@ -3995,16 +4013,16 @@
         <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F80" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G80" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H80">
         <v>7366.666</v>
@@ -4024,16 +4042,16 @@
         <v>82</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F81" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G81" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H81">
         <v>1605.86</v>
@@ -4053,16 +4071,16 @@
         <v>69</v>
       </c>
       <c r="D82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F82" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G82" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H82">
         <v>15752.24</v>
@@ -4082,16 +4100,16 @@
         <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G83" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H83">
         <v>21117.8</v>
@@ -4111,16 +4129,16 @@
         <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F84" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G84" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H84">
         <v>9975.32</v>
@@ -4140,16 +4158,16 @@
         <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F85" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G85" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H85">
         <v>6973.04</v>
@@ -4169,16 +4187,16 @@
         <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F86" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G86" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H86">
         <v>13556.36</v>
@@ -4198,16 +4216,16 @@
         <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G87" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H87">
         <v>3481.32</v>
@@ -4227,16 +4245,16 @@
         <v>77</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G88" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H88">
         <v>59.72</v>
@@ -4256,16 +4274,16 @@
         <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G89" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H89">
         <v>6190.48</v>
@@ -4285,16 +4303,16 @@
         <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G90" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H90">
         <v>330.1</v>
@@ -4314,16 +4332,16 @@
         <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G91" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H91">
         <v>2425.16</v>
@@ -4343,16 +4361,16 @@
         <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F92" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G92" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H92">
         <v>2039.5</v>
@@ -4372,16 +4390,16 @@
         <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F93" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G93" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H93">
         <v>48421.96</v>
@@ -4401,16 +4419,16 @@
         <v>80</v>
       </c>
       <c r="D94" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E94" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F94" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G94" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H94">
         <v>9990.040000000001</v>
@@ -4430,16 +4448,16 @@
         <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F95" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G95" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H95">
         <v>12714.02</v>
@@ -4459,16 +4477,16 @@
         <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F96" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G96" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H96">
         <v>3599.92</v>
@@ -4488,16 +4506,16 @@
         <v>69</v>
       </c>
       <c r="D97" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F97" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G97" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H97">
         <v>4415.76</v>
@@ -4517,16 +4535,16 @@
         <v>84</v>
       </c>
       <c r="D98" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F98" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G98" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H98">
         <v>35022.82</v>
@@ -4546,16 +4564,16 @@
         <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F99" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G99" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H99">
         <v>39938.26</v>
@@ -4575,16 +4593,16 @@
         <v>94</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F100" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G100" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H100">
         <v>24320.87</v>
@@ -4604,16 +4622,16 @@
         <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F101" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G101" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H101">
         <v>2888.8</v>
@@ -4633,16 +4651,16 @@
         <v>96</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G102" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H102">
         <v>1168.9</v>
@@ -4662,16 +4680,16 @@
         <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E103" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G103" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H103">
         <v>1708.18</v>
@@ -4691,16 +4709,16 @@
         <v>91</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E104" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F104" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G104" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H104">
         <v>7118.22</v>
@@ -4720,16 +4738,16 @@
         <v>98</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E105" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F105" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G105" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H105">
         <v>19512.04</v>
@@ -4749,16 +4767,16 @@
         <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F106" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G106" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H106">
         <v>19961.7</v>
@@ -4778,16 +4796,16 @@
         <v>92</v>
       </c>
       <c r="D107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E107" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F107" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G107" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H107">
         <v>4755.48</v>
@@ -4807,16 +4825,16 @@
         <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F108" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G108" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H108">
         <v>3608.98</v>
@@ -4836,16 +4854,16 @@
         <v>84</v>
       </c>
       <c r="D109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F109" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G109" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H109">
         <v>6876.38</v>
@@ -4865,16 +4883,16 @@
         <v>101</v>
       </c>
       <c r="D110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F110" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G110" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H110">
         <v>3472.02</v>
@@ -4894,16 +4912,16 @@
         <v>94</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F111" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G111" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H111">
         <v>19608</v>
@@ -4923,16 +4941,16 @@
         <v>102</v>
       </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E112" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G112" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H112">
         <v>2186.56</v>
@@ -4952,16 +4970,16 @@
         <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G113" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H113">
         <v>2873.1</v>
@@ -4981,16 +4999,16 @@
         <v>104</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G114" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H114">
         <v>1810.92</v>
@@ -5010,16 +5028,16 @@
         <v>98</v>
       </c>
       <c r="D115" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F115" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G115" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H115">
         <v>32347.5</v>
@@ -5039,16 +5057,16 @@
         <v>105</v>
       </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F116" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G116" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H116">
         <v>6814.36</v>
@@ -5068,16 +5086,16 @@
         <v>106</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F117" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G117" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H117">
         <v>17764.88</v>
@@ -5097,16 +5115,16 @@
         <v>107</v>
       </c>
       <c r="D118" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F118" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G118" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H118">
         <v>39805.19</v>
@@ -5126,16 +5144,16 @@
         <v>108</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F119" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G119" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H119">
         <v>3698.82</v>
@@ -5155,16 +5173,16 @@
         <v>100</v>
       </c>
       <c r="D120" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F120" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G120" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H120">
         <v>3976.24</v>
@@ -5184,16 +5202,16 @@
         <v>109</v>
       </c>
       <c r="D121" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F121" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G121" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H121">
         <v>142.1</v>
@@ -5213,16 +5231,16 @@
         <v>110</v>
       </c>
       <c r="D122" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F122" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G122" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H122">
         <v>3409.48</v>
@@ -5242,16 +5260,16 @@
         <v>84</v>
       </c>
       <c r="D123" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F123" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G123" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H123">
         <v>4793.96</v>
@@ -5271,16 +5289,16 @@
         <v>101</v>
       </c>
       <c r="D124" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F124" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G124" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H124">
         <v>17268.6</v>
@@ -5300,16 +5318,16 @@
         <v>111</v>
       </c>
       <c r="D125" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G125" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H125">
         <v>4689.5</v>
@@ -5329,16 +5347,16 @@
         <v>112</v>
       </c>
       <c r="D126" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G126" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H126">
         <v>553.74</v>
@@ -5358,16 +5376,16 @@
         <v>113</v>
       </c>
       <c r="D127" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G127" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H127">
         <v>2462.82</v>
@@ -5387,16 +5405,16 @@
         <v>114</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G128" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H128">
         <v>3986.94</v>
@@ -5416,16 +5434,16 @@
         <v>115</v>
       </c>
       <c r="D129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F129" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G129" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H129">
         <v>3008.02</v>
@@ -5445,16 +5463,16 @@
         <v>116</v>
       </c>
       <c r="D130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F130" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G130" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H130">
         <v>31628.56</v>
@@ -5474,16 +5492,16 @@
         <v>105</v>
       </c>
       <c r="D131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F131" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G131" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H131">
         <v>13495.52</v>
@@ -5503,16 +5521,16 @@
         <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E132" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F132" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G132" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H132">
         <v>3539.67</v>
@@ -5532,16 +5550,16 @@
         <v>117</v>
       </c>
       <c r="D133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F133" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G133" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H133">
         <v>47647.41</v>
@@ -5561,16 +5579,16 @@
         <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F134" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G134" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H134">
         <v>9939.540000000001</v>
@@ -5590,22 +5608,22 @@
         <v>110</v>
       </c>
       <c r="D135" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F135" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G135" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H135">
         <v>31215.66</v>
       </c>
       <c r="I135">
-        <v>3531</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5619,19 +5637,22 @@
         <v>118</v>
       </c>
       <c r="D136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F136" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G136" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H136">
-        <v>4537.34</v>
+        <v>17101.24</v>
+      </c>
+      <c r="I136">
+        <v>2963</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5645,22 +5666,22 @@
         <v>119</v>
       </c>
       <c r="D137" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F137" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G137" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H137">
-        <v>6497.44</v>
+        <v>3652.22</v>
       </c>
       <c r="I137">
-        <v>3998</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5671,25 +5692,25 @@
         <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D138" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F138" t="s">
-        <v>140</v>
+        <v>302</v>
       </c>
       <c r="G138" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H138">
-        <v>1635.34</v>
+        <v>6497.44</v>
       </c>
       <c r="I138">
-        <v>3923</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5700,25 +5721,25 @@
         <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D139" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F139" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G139" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="H139">
-        <v>2436.32</v>
+        <v>1635.34</v>
       </c>
       <c r="I139">
-        <v>4144</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5732,22 +5753,22 @@
         <v>121</v>
       </c>
       <c r="D140" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E140" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G140" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="H140">
-        <v>2451.6</v>
+        <v>4961.72</v>
       </c>
       <c r="I140">
-        <v>3497</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5761,22 +5782,22 @@
         <v>122</v>
       </c>
       <c r="D141" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G141" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="H141">
-        <v>2478.34</v>
+        <v>2931.86</v>
       </c>
       <c r="I141">
-        <v>3080</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5790,22 +5811,22 @@
         <v>123</v>
       </c>
       <c r="D142" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F142" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G142" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H142">
-        <v>1382.76</v>
+        <v>2971.98</v>
       </c>
       <c r="I142">
-        <v>3102</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5816,25 +5837,25 @@
         <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F143" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="G143" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="H143">
-        <v>7419.5</v>
+        <v>1649.08</v>
       </c>
       <c r="I143">
-        <v>3842</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5845,25 +5866,25 @@
         <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E144" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F144" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G144" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H144">
-        <v>10406.74</v>
+        <v>16370.44</v>
       </c>
       <c r="I144">
-        <v>3278</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5877,22 +5898,22 @@
         <v>125</v>
       </c>
       <c r="D145" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F145" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G145" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H145">
-        <v>44291.92</v>
+        <v>10406.74</v>
       </c>
       <c r="I145">
-        <v>3922</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5906,22 +5927,22 @@
         <v>126</v>
       </c>
       <c r="D146" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E146" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F146" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G146" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="H146">
-        <v>3710.08</v>
+        <v>49430.9</v>
       </c>
       <c r="I146">
-        <v>2968</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5932,25 +5953,25 @@
         <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D147" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F147" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G147" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="H147">
-        <v>3393.76</v>
+        <v>3710.08</v>
       </c>
       <c r="I147">
-        <v>4838</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5961,25 +5982,25 @@
         <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D148" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F148" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G148" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="H148">
-        <v>4088.82</v>
+        <v>3393.76</v>
       </c>
       <c r="I148">
-        <v>4547</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5996,19 +6017,48 @@
         <v>138</v>
       </c>
       <c r="E149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F149" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G149" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="H149">
-        <v>10627.07</v>
+        <v>4088.82</v>
       </c>
       <c r="I149">
-        <v>5344</v>
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>16</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" t="s">
+        <v>129</v>
+      </c>
+      <c r="D150" t="s">
+        <v>139</v>
+      </c>
+      <c r="E150" t="s">
+        <v>301</v>
+      </c>
+      <c r="F150" t="s">
+        <v>312</v>
+      </c>
+      <c r="G150" t="s">
+        <v>438</v>
+      </c>
+      <c r="H150">
+        <v>19434.85</v>
+      </c>
+      <c r="I150">
+        <v>5305</v>
       </c>
     </row>
   </sheetData>
@@ -6018,7 +6068,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6035,7 +6085,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6043,7 +6093,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>9198.4</v>
@@ -6057,7 +6107,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>5264.84</v>
@@ -6071,7 +6121,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>1394.18</v>
@@ -6085,7 +6135,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>2502.76</v>
@@ -6099,7 +6149,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>523.46</v>
@@ -6113,7 +6163,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>2876.64</v>
@@ -6127,7 +6177,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>72967.52</v>
@@ -6141,7 +6191,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9">
         <v>266.44</v>
@@ -6155,7 +6205,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10">
         <v>29184.35</v>
@@ -6169,7 +6219,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>15211.08</v>
@@ -6183,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>40916.66</v>
@@ -6197,7 +6247,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13">
         <v>8590.220000000001</v>
@@ -6211,7 +6261,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>20012.07</v>
@@ -6225,7 +6275,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15">
         <v>15266.58</v>
@@ -6239,7 +6289,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16">
         <v>18533.02</v>
@@ -6253,7 +6303,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17">
         <v>4851.32</v>
@@ -6267,7 +6317,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>4964.28</v>
@@ -6281,7 +6331,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>10428.96</v>
@@ -6295,7 +6345,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>4444.58</v>
@@ -6309,7 +6359,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21">
         <v>4962.66</v>
@@ -6323,7 +6373,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <v>1967.76</v>
@@ -6337,7 +6387,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C23">
         <v>5991.440000000001</v>
@@ -6351,7 +6401,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>888.72</v>
@@ -6365,7 +6415,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25">
         <v>32324.05</v>
@@ -6379,7 +6429,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>27248.69</v>
@@ -6393,7 +6443,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27">
         <v>10657.6</v>
@@ -6407,7 +6457,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28">
         <v>17733.2</v>
@@ -6421,7 +6471,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29">
         <v>3553.6</v>
@@ -6435,7 +6485,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>20972.86</v>
@@ -6449,7 +6499,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31">
         <v>1188.36</v>
@@ -6463,7 +6513,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32">
         <v>7444.38</v>
@@ -6477,7 +6527,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33">
         <v>9552.200000000001</v>
@@ -6491,7 +6541,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C34">
         <v>2977.34</v>
@@ -6505,7 +6555,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35">
         <v>1427.8</v>
@@ -6519,7 +6569,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36">
         <v>68515.85000000001</v>
@@ -6533,7 +6583,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37">
         <v>12340.99</v>
@@ -6547,7 +6597,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C38">
         <v>12370.01</v>
@@ -6561,7 +6611,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39">
         <v>45154.5</v>
@@ -6575,7 +6625,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40">
         <v>24900.36</v>
@@ -6589,7 +6639,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41">
         <v>9900.34</v>
@@ -6603,7 +6653,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42">
         <v>2442.96</v>
@@ -6617,7 +6667,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C43">
         <v>9928.9</v>
@@ -6631,7 +6681,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44">
         <v>19423.88</v>
@@ -6645,7 +6695,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45">
         <v>22390.22</v>
@@ -6659,7 +6709,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C46">
         <v>1942.52</v>
@@ -6670,7 +6720,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47">
         <v>59798.67999999999</v>
@@ -6684,7 +6734,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48">
         <v>23738.4</v>
@@ -6698,7 +6748,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49">
         <v>2084.88</v>
@@ -6712,7 +6762,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50">
         <v>4883.32</v>
@@ -6726,7 +6776,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51">
         <v>25625.82</v>
@@ -6740,7 +6790,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52">
         <v>3636.5</v>
@@ -6754,7 +6804,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53">
         <v>37144.79</v>
@@ -6768,7 +6818,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54">
         <v>10753.186</v>
@@ -6782,7 +6832,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55">
         <v>10017.03</v>
@@ -6796,7 +6846,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C56">
         <v>5048.440000000001</v>
@@ -6810,7 +6860,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57">
         <v>3629.18</v>
@@ -6824,7 +6874,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58">
         <v>866.28</v>
@@ -6838,7 +6888,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59">
         <v>278.68</v>
@@ -6849,7 +6899,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60">
         <v>20408.68</v>
@@ -6863,7 +6913,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C61">
         <v>20037.01</v>
@@ -6877,7 +6927,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62">
         <v>1605.86</v>
@@ -6891,7 +6941,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63">
         <v>46845.36</v>
@@ -6905,7 +6955,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64">
         <v>20529.4</v>
@@ -6919,7 +6969,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65">
         <v>16313.94</v>
@@ -6933,7 +6983,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66">
         <v>9990.040000000001</v>
@@ -6947,7 +6997,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67">
         <v>3481.32</v>
@@ -6961,7 +7011,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C68">
         <v>6250.2</v>
@@ -6975,7 +7025,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69">
         <v>2425.16</v>
@@ -6989,7 +7039,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70">
         <v>330.1</v>
@@ -7003,7 +7053,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71">
         <v>50461.46</v>
@@ -7017,7 +7067,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C72">
         <v>39438.58</v>
@@ -7031,7 +7081,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73">
         <v>64259.13</v>
@@ -7045,7 +7095,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74">
         <v>8364.459999999999</v>
@@ -7059,7 +7109,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75">
         <v>19961.7</v>
@@ -7073,7 +7123,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>2888.8</v>
@@ -7087,7 +7137,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77">
         <v>1708.18</v>
@@ -7101,7 +7151,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C78">
         <v>1168.9</v>
@@ -7115,7 +7165,7 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79">
         <v>26630.26</v>
@@ -7129,7 +7179,7 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80">
         <v>142.1</v>
@@ -7143,7 +7193,7 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C81">
         <v>10348.4</v>
@@ -7157,7 +7207,7 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C82">
         <v>19608</v>
@@ -7171,7 +7221,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83">
         <v>3698.82</v>
@@ -7185,7 +7235,7 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C84">
         <v>3976.24</v>
@@ -7199,7 +7249,7 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C85">
         <v>39805.19</v>
@@ -7213,7 +7263,7 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C86">
         <v>2186.56</v>
@@ -7227,7 +7277,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C87">
         <v>1810.92</v>
@@ -7241,7 +7291,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88">
         <v>2873.1</v>
@@ -7255,7 +7305,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C89">
         <v>17764.88</v>
@@ -7269,7 +7319,7 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C90">
         <v>39161.86</v>
@@ -7283,7 +7333,7 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C91">
         <v>25472.04</v>
@@ -7297,7 +7347,7 @@
         <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C92">
         <v>9939.540000000001</v>
@@ -7311,7 +7361,7 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C93">
         <v>47647.41</v>
@@ -7325,7 +7375,7 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94">
         <v>5243.24</v>
@@ -7339,7 +7389,7 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C95">
         <v>2462.82</v>
@@ -7353,7 +7403,7 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C96">
         <v>3008.02</v>
@@ -7367,7 +7417,7 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97">
         <v>3986.94</v>
@@ -7381,7 +7431,7 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C98">
         <v>3539.67</v>
@@ -7395,7 +7445,7 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99">
         <v>45124.08</v>
@@ -7409,13 +7459,13 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C100">
-        <v>35753</v>
+        <v>48316.9</v>
       </c>
       <c r="D100">
-        <v>3531</v>
+        <v>3300.243790888902</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7423,13 +7473,13 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C101">
-        <v>3710.08</v>
+        <v>3652.22</v>
       </c>
       <c r="D101">
-        <v>2968</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7437,13 +7487,13 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C102">
-        <v>7482.58</v>
+        <v>3710.08</v>
       </c>
       <c r="D102">
-        <v>4678.984443868292</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7451,13 +7501,13 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C103">
-        <v>44291.92</v>
+        <v>7482.58</v>
       </c>
       <c r="D103">
-        <v>3922</v>
+        <v>4678.984443868292</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -7465,13 +7515,13 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C104">
-        <v>4071.66</v>
+        <v>49430.9</v>
       </c>
       <c r="D104">
-        <v>4055.237642632243</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7479,13 +7529,13 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C105">
-        <v>2451.6</v>
+        <v>6597.06</v>
       </c>
       <c r="D105">
-        <v>3497</v>
+        <v>4089.216484312709</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -7493,13 +7543,13 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C106">
-        <v>1382.76</v>
+        <v>2931.86</v>
       </c>
       <c r="D106">
-        <v>3102</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -7507,13 +7557,13 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C107">
-        <v>2478.34</v>
+        <v>1649.08</v>
       </c>
       <c r="D107">
-        <v>3080</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -7521,13 +7571,13 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C108">
-        <v>10406.74</v>
+        <v>2971.98</v>
       </c>
       <c r="D108">
-        <v>3278</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7535,13 +7585,13 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C109">
-        <v>7419.5</v>
+        <v>10406.74</v>
       </c>
       <c r="D109">
-        <v>3842</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7549,13 +7599,13 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C110">
-        <v>6497.44</v>
+        <v>16370.44</v>
       </c>
       <c r="D110">
-        <v>3998</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7563,13 +7613,27 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C111">
-        <v>10627.07</v>
+        <v>6497.44</v>
       </c>
       <c r="D111">
-        <v>5344</v>
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112">
+        <v>19434.85</v>
+      </c>
+      <c r="D112">
+        <v>5305</v>
       </c>
     </row>
   </sheetData>
@@ -7593,12 +7657,12 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>142.1</v>
@@ -7609,18 +7673,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3">
-        <v>351529.61</v>
+        <v>364093.51</v>
       </c>
       <c r="C3">
-        <v>3221.020832394912</v>
+        <v>3204.957935421591</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>17788.62</v>
@@ -7631,18 +7695,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5">
-        <v>122129.73</v>
+        <v>125781.95</v>
       </c>
       <c r="C5">
-        <v>3529.181533194251</v>
+        <v>3515.471212761449</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>30974.57</v>
@@ -7653,7 +7717,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7">
         <v>146972.986</v>
@@ -7664,18 +7728,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8">
-        <v>191640.49</v>
+        <v>196779.47</v>
       </c>
       <c r="C8">
-        <v>3944.159761436636</v>
+        <v>3948.605039336675</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9">
         <v>6039.68</v>
@@ -7686,29 +7750,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10">
-        <v>44741.3</v>
+        <v>47266.7</v>
       </c>
       <c r="C10">
-        <v>4310.932856389701</v>
+        <v>4301.307770074969</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11">
-        <v>27195.44</v>
+        <v>27675.7</v>
       </c>
       <c r="C11">
-        <v>3616.370330467166</v>
+        <v>3616.099798017755</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12">
         <v>19981.16</v>
@@ -7719,18 +7783,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13">
-        <v>24107.56</v>
+        <v>24373.88</v>
       </c>
       <c r="C13">
-        <v>3308.443643404807</v>
+        <v>3315.457048282834</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>4968.04</v>
@@ -7741,18 +7805,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15">
-        <v>20383.16</v>
+        <v>20876.8</v>
       </c>
       <c r="C15">
-        <v>3132.690546584642</v>
+        <v>3138.06486805592</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16">
         <v>1967.76</v>
@@ -7763,7 +7827,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17">
         <v>31711.29</v>
@@ -7774,18 +7838,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18">
-        <v>381730.35</v>
+        <v>390681.29</v>
       </c>
       <c r="C18">
-        <v>3765.224475077761</v>
+        <v>3768.994797012163</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <v>1155.16</v>
@@ -7796,7 +7860,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20">
         <v>26026.72</v>
@@ -7807,7 +7871,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21">
         <v>26534.45</v>
@@ -7818,7 +7882,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22">
         <v>73849.39</v>
@@ -7829,7 +7893,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23">
         <v>3548.38</v>
@@ -7840,13 +7904,13 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24">
-        <v>65456.85</v>
+        <v>74264.63</v>
       </c>
       <c r="C24">
-        <v>3804.58706766366</v>
+        <v>3976.95514230664</v>
       </c>
     </row>
   </sheetData>
@@ -7856,7 +7920,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7870,10 +7934,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7881,7 +7945,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>4599.2</v>
@@ -7895,7 +7959,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>5264.84</v>
@@ -7909,7 +7973,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>1394.18</v>
@@ -7923,7 +7987,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>2502.76</v>
@@ -7937,7 +8001,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>523.46</v>
@@ -7951,7 +8015,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>2876.64</v>
@@ -7965,7 +8029,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>72967.52</v>
@@ -7979,7 +8043,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9">
         <v>266.44</v>
@@ -7993,7 +8057,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10">
         <v>29184.35</v>
@@ -8007,7 +8071,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>15211.08</v>
@@ -8021,7 +8085,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>20458.33</v>
@@ -8035,7 +8099,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13">
         <v>2863.406666666667</v>
@@ -8049,7 +8113,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>10006.035</v>
@@ -8063,7 +8127,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15">
         <v>7633.29</v>
@@ -8077,7 +8141,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16">
         <v>18533.02</v>
@@ -8091,7 +8155,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17">
         <v>2425.66</v>
@@ -8105,7 +8169,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>4964.28</v>
@@ -8119,7 +8183,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>10428.96</v>
@@ -8133,7 +8197,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>2222.29</v>
@@ -8147,7 +8211,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21">
         <v>4962.66</v>
@@ -8161,7 +8225,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <v>1967.76</v>
@@ -8175,7 +8239,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C23">
         <v>2995.72</v>
@@ -8189,7 +8253,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>888.72</v>
@@ -8203,7 +8267,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25">
         <v>32324.05</v>
@@ -8217,7 +8281,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>27248.69</v>
@@ -8231,7 +8295,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27">
         <v>10657.6</v>
@@ -8245,7 +8309,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28">
         <v>17733.2</v>
@@ -8259,7 +8323,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29">
         <v>3553.6</v>
@@ -8273,7 +8337,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>10486.43</v>
@@ -8287,7 +8351,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31">
         <v>1188.36</v>
@@ -8301,7 +8365,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32">
         <v>7444.38</v>
@@ -8315,7 +8379,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33">
         <v>9552.200000000001</v>
@@ -8329,7 +8393,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C34">
         <v>2977.34</v>
@@ -8343,7 +8407,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35">
         <v>1427.8</v>
@@ -8357,7 +8421,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36">
         <v>34257.925</v>
@@ -8371,7 +8435,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37">
         <v>12340.99</v>
@@ -8385,7 +8449,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C38">
         <v>12370.01</v>
@@ -8399,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39">
         <v>45154.5</v>
@@ -8413,7 +8477,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40">
         <v>8300.120000000001</v>
@@ -8427,7 +8491,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41">
         <v>9900.34</v>
@@ -8441,7 +8505,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42">
         <v>2442.96</v>
@@ -8455,7 +8519,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C43">
         <v>9928.9</v>
@@ -8469,7 +8533,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44">
         <v>19423.88</v>
@@ -8483,7 +8547,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45">
         <v>22390.22</v>
@@ -8497,7 +8561,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C46">
         <v>1942.52</v>
@@ -8508,7 +8572,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47">
         <v>29899.34</v>
@@ -8522,7 +8586,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48">
         <v>7912.8</v>
@@ -8536,7 +8600,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49">
         <v>2084.88</v>
@@ -8550,7 +8614,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50">
         <v>4883.32</v>
@@ -8564,7 +8628,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51">
         <v>12812.91</v>
@@ -8578,7 +8642,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52">
         <v>3636.5</v>
@@ -8592,7 +8656,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53">
         <v>37144.79</v>
@@ -8606,7 +8670,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54">
         <v>5376.593</v>
@@ -8620,7 +8684,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55">
         <v>10017.03</v>
@@ -8634,7 +8698,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C56">
         <v>2524.22</v>
@@ -8648,7 +8712,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57">
         <v>3629.18</v>
@@ -8662,7 +8726,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58">
         <v>866.28</v>
@@ -8676,7 +8740,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59">
         <v>278.68</v>
@@ -8687,7 +8751,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60">
         <v>20408.68</v>
@@ -8701,7 +8765,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C61">
         <v>20037.01</v>
@@ -8715,7 +8779,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62">
         <v>1605.86</v>
@@ -8729,7 +8793,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63">
         <v>15615.12</v>
@@ -8743,7 +8807,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64">
         <v>10264.7</v>
@@ -8757,7 +8821,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65">
         <v>8156.97</v>
@@ -8771,7 +8835,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66">
         <v>9990.040000000001</v>
@@ -8785,7 +8849,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67">
         <v>3481.32</v>
@@ -8799,7 +8863,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C68">
         <v>3125.1</v>
@@ -8813,7 +8877,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69">
         <v>2425.16</v>
@@ -8827,7 +8891,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70">
         <v>330.1</v>
@@ -8841,7 +8905,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71">
         <v>25230.73</v>
@@ -8855,7 +8919,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C72">
         <v>19719.29</v>
@@ -8869,7 +8933,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73">
         <v>32129.565</v>
@@ -8883,7 +8947,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74">
         <v>4182.23</v>
@@ -8897,7 +8961,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75">
         <v>19961.7</v>
@@ -8911,7 +8975,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>2888.8</v>
@@ -8925,7 +8989,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77">
         <v>1708.18</v>
@@ -8939,7 +9003,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C78">
         <v>1168.9</v>
@@ -8953,7 +9017,7 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79">
         <v>13315.13</v>
@@ -8967,7 +9031,7 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80">
         <v>142.1</v>
@@ -8981,7 +9045,7 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C81">
         <v>5174.2</v>
@@ -8995,7 +9059,7 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C82">
         <v>19608</v>
@@ -9009,7 +9073,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83">
         <v>3698.82</v>
@@ -9023,7 +9087,7 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C84">
         <v>3976.24</v>
@@ -9037,7 +9101,7 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C85">
         <v>39805.19</v>
@@ -9051,7 +9115,7 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C86">
         <v>2186.56</v>
@@ -9065,7 +9129,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C87">
         <v>1810.92</v>
@@ -9079,7 +9143,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88">
         <v>2873.1</v>
@@ -9093,7 +9157,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C89">
         <v>17764.88</v>
@@ -9107,7 +9171,7 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C90">
         <v>19580.93</v>
@@ -9121,7 +9185,7 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C91">
         <v>8490.68</v>
@@ -9135,7 +9199,7 @@
         <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C92">
         <v>9939.540000000001</v>
@@ -9149,7 +9213,7 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C93">
         <v>47647.41</v>
@@ -9163,7 +9227,7 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94">
         <v>2621.62</v>
@@ -9177,7 +9241,7 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C95">
         <v>2462.82</v>
@@ -9191,7 +9255,7 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C96">
         <v>3008.02</v>
@@ -9205,7 +9269,7 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97">
         <v>3986.94</v>
@@ -9219,7 +9283,7 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C98">
         <v>3539.67</v>
@@ -9233,7 +9297,7 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99">
         <v>22562.04</v>
@@ -9247,13 +9311,13 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C100">
-        <v>17876.5</v>
+        <v>24158.45</v>
       </c>
       <c r="D100">
-        <v>3531</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -9261,13 +9325,13 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C101">
-        <v>3710.08</v>
+        <v>3652.22</v>
       </c>
       <c r="D101">
-        <v>2968</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -9275,13 +9339,13 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C102">
-        <v>3741.29</v>
+        <v>3710.08</v>
       </c>
       <c r="D102">
-        <v>4692.5</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -9289,13 +9353,13 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C103">
-        <v>44291.92</v>
+        <v>3741.29</v>
       </c>
       <c r="D103">
-        <v>3922</v>
+        <v>4692.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -9303,13 +9367,13 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C104">
-        <v>2035.83</v>
+        <v>49430.9</v>
       </c>
       <c r="D104">
-        <v>4033.5</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -9317,13 +9381,13 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C105">
-        <v>2451.6</v>
+        <v>3298.53</v>
       </c>
       <c r="D105">
-        <v>3497</v>
+        <v>4033.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -9331,13 +9395,13 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C106">
-        <v>1382.76</v>
+        <v>2931.86</v>
       </c>
       <c r="D106">
-        <v>3102</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -9345,13 +9409,13 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C107">
-        <v>2478.34</v>
+        <v>1649.08</v>
       </c>
       <c r="D107">
-        <v>3080</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -9359,13 +9423,13 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C108">
-        <v>10406.74</v>
+        <v>2971.98</v>
       </c>
       <c r="D108">
-        <v>3278</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -9373,13 +9437,13 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C109">
-        <v>7419.5</v>
+        <v>10406.74</v>
       </c>
       <c r="D109">
-        <v>3842</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -9387,13 +9451,13 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C110">
-        <v>6497.44</v>
+        <v>16370.44</v>
       </c>
       <c r="D110">
-        <v>3998</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -9401,13 +9465,27 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C111">
-        <v>10627.07</v>
+        <v>6497.44</v>
       </c>
       <c r="D111">
-        <v>5344</v>
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112">
+        <v>19434.85</v>
+      </c>
+      <c r="D112">
+        <v>5305</v>
       </c>
     </row>
   </sheetData>
@@ -9417,7 +9495,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9431,10 +9509,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9442,7 +9520,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>5756.2</v>
@@ -9456,7 +9534,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>5264.84</v>
@@ -9470,7 +9548,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>1394.18</v>
@@ -9484,7 +9562,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>2502.76</v>
@@ -9498,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>523.46</v>
@@ -9512,7 +9590,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>2876.64</v>
@@ -9526,7 +9604,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>72967.52</v>
@@ -9540,7 +9618,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9">
         <v>266.44</v>
@@ -9554,7 +9632,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10">
         <v>29184.35</v>
@@ -9568,7 +9646,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>15211.08</v>
@@ -9582,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>28856.62</v>
@@ -9596,7 +9674,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13">
         <v>6664.68</v>
@@ -9610,7 +9688,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>10732.63</v>
@@ -9624,7 +9702,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15">
         <v>14773.68</v>
@@ -9638,7 +9716,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16">
         <v>18533.02</v>
@@ -9652,7 +9730,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17">
         <v>2464.5</v>
@@ -9666,7 +9744,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>4964.28</v>
@@ -9680,7 +9758,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>10428.96</v>
@@ -9694,7 +9772,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>2485.74</v>
@@ -9708,7 +9786,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21">
         <v>4962.66</v>
@@ -9722,7 +9800,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <v>1967.76</v>
@@ -9736,7 +9814,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C23">
         <v>3809.76</v>
@@ -9750,7 +9828,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>888.72</v>
@@ -9764,7 +9842,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25">
         <v>32324.05</v>
@@ -9778,7 +9856,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>27248.69</v>
@@ -9792,7 +9870,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27">
         <v>10657.6</v>
@@ -9806,7 +9884,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28">
         <v>17733.2</v>
@@ -9820,7 +9898,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29">
         <v>3553.6</v>
@@ -9834,7 +9912,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>10924.8</v>
@@ -9848,7 +9926,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31">
         <v>1188.36</v>
@@ -9862,7 +9940,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32">
         <v>7444.38</v>
@@ -9876,7 +9954,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33">
         <v>9552.200000000001</v>
@@ -9890,7 +9968,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C34">
         <v>2977.34</v>
@@ -9904,7 +9982,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35">
         <v>1427.8</v>
@@ -9918,7 +9996,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36">
         <v>52327.11</v>
@@ -9932,7 +10010,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37">
         <v>12340.99</v>
@@ -9946,7 +10024,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C38">
         <v>12370.01</v>
@@ -9960,7 +10038,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39">
         <v>45154.5</v>
@@ -9974,7 +10052,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40">
         <v>14025.5</v>
@@ -9988,7 +10066,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41">
         <v>9900.34</v>
@@ -10002,7 +10080,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42">
         <v>2442.96</v>
@@ -10016,7 +10094,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C43">
         <v>9928.9</v>
@@ -10030,7 +10108,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44">
         <v>19423.88</v>
@@ -10044,7 +10122,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45">
         <v>22390.22</v>
@@ -10058,7 +10136,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C46">
         <v>1942.52</v>
@@ -10069,7 +10147,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47">
         <v>35763.42</v>
@@ -10083,7 +10161,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48">
         <v>16323.1</v>
@@ -10097,7 +10175,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49">
         <v>2084.88</v>
@@ -10111,7 +10189,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50">
         <v>4883.32</v>
@@ -10125,7 +10203,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51">
         <v>19411.72</v>
@@ -10139,7 +10217,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52">
         <v>3636.5</v>
@@ -10153,7 +10231,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53">
         <v>37144.79</v>
@@ -10167,7 +10245,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54">
         <v>7366.666</v>
@@ -10181,7 +10259,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55">
         <v>10017.03</v>
@@ -10195,7 +10273,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C56">
         <v>3467.38</v>
@@ -10209,7 +10287,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57">
         <v>3629.18</v>
@@ -10223,7 +10301,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58">
         <v>866.28</v>
@@ -10237,7 +10315,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59">
         <v>278.68</v>
@@ -10248,7 +10326,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60">
         <v>20408.68</v>
@@ -10262,7 +10340,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C61">
         <v>20037.01</v>
@@ -10276,7 +10354,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62">
         <v>1605.86</v>
@@ -10290,7 +10368,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63">
         <v>21117.8</v>
@@ -10304,7 +10382,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64">
         <v>13556.36</v>
@@ -10318,7 +10396,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65">
         <v>12714.02</v>
@@ -10332,7 +10410,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66">
         <v>9990.040000000001</v>
@@ -10346,7 +10424,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67">
         <v>3481.32</v>
@@ -10360,7 +10438,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C68">
         <v>6190.48</v>
@@ -10374,7 +10452,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69">
         <v>2425.16</v>
@@ -10388,7 +10466,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70">
         <v>330.1</v>
@@ -10402,7 +10480,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71">
         <v>48421.96</v>
@@ -10416,7 +10494,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C72">
         <v>35022.82</v>
@@ -10430,7 +10508,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73">
         <v>39938.26</v>
@@ -10444,7 +10522,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74">
         <v>4755.48</v>
@@ -10458,7 +10536,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75">
         <v>19961.7</v>
@@ -10472,7 +10550,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>2888.8</v>
@@ -10486,7 +10564,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77">
         <v>1708.18</v>
@@ -10500,7 +10578,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C78">
         <v>1168.9</v>
@@ -10514,7 +10592,7 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79">
         <v>19512.04</v>
@@ -10528,7 +10606,7 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80">
         <v>142.1</v>
@@ -10542,7 +10620,7 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C81">
         <v>6876.38</v>
@@ -10556,7 +10634,7 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C82">
         <v>19608</v>
@@ -10570,7 +10648,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83">
         <v>3698.82</v>
@@ -10584,7 +10662,7 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C84">
         <v>3976.24</v>
@@ -10598,7 +10676,7 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C85">
         <v>39805.19</v>
@@ -10612,7 +10690,7 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C86">
         <v>2186.56</v>
@@ -10626,7 +10704,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C87">
         <v>1810.92</v>
@@ -10640,7 +10718,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88">
         <v>2873.1</v>
@@ -10654,7 +10732,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C89">
         <v>17764.88</v>
@@ -10668,7 +10746,7 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C90">
         <v>32347.5</v>
@@ -10682,7 +10760,7 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C91">
         <v>17268.6</v>
@@ -10696,7 +10774,7 @@
         <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C92">
         <v>9939.540000000001</v>
@@ -10710,7 +10788,7 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C93">
         <v>47647.41</v>
@@ -10724,7 +10802,7 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94">
         <v>4689.5</v>
@@ -10738,7 +10816,7 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C95">
         <v>2462.82</v>
@@ -10752,7 +10830,7 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C96">
         <v>3008.02</v>
@@ -10766,7 +10844,7 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97">
         <v>3986.94</v>
@@ -10780,7 +10858,7 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C98">
         <v>3539.67</v>
@@ -10794,7 +10872,7 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99">
         <v>31628.56</v>
@@ -10808,13 +10886,13 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C100">
         <v>31215.66</v>
       </c>
       <c r="D100">
-        <v>3531</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -10822,13 +10900,13 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C101">
-        <v>3710.08</v>
+        <v>3652.22</v>
       </c>
       <c r="D101">
-        <v>2968</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -10836,13 +10914,13 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C102">
-        <v>4088.82</v>
+        <v>3710.08</v>
       </c>
       <c r="D102">
-        <v>4838</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -10850,13 +10928,13 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C103">
-        <v>44291.92</v>
+        <v>4088.82</v>
       </c>
       <c r="D103">
-        <v>3922</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -10864,13 +10942,13 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C104">
-        <v>2436.32</v>
+        <v>49430.9</v>
       </c>
       <c r="D104">
-        <v>4144</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -10878,13 +10956,13 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C105">
-        <v>2451.6</v>
+        <v>4961.72</v>
       </c>
       <c r="D105">
-        <v>3497</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -10892,13 +10970,13 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C106">
-        <v>1382.76</v>
+        <v>2931.86</v>
       </c>
       <c r="D106">
-        <v>3102</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -10906,13 +10984,13 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C107">
-        <v>2478.34</v>
+        <v>1649.08</v>
       </c>
       <c r="D107">
-        <v>3080</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -10920,13 +10998,13 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C108">
-        <v>10406.74</v>
+        <v>2971.98</v>
       </c>
       <c r="D108">
-        <v>3278</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -10934,13 +11012,13 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C109">
-        <v>7419.5</v>
+        <v>10406.74</v>
       </c>
       <c r="D109">
-        <v>3842</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -10948,13 +11026,13 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C110">
-        <v>6497.44</v>
+        <v>16370.44</v>
       </c>
       <c r="D110">
-        <v>3998</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -10962,13 +11040,27 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C111">
-        <v>10627.07</v>
+        <v>6497.44</v>
       </c>
       <c r="D111">
-        <v>5344</v>
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112">
+        <v>19434.85</v>
+      </c>
+      <c r="D112">
+        <v>5305</v>
       </c>
     </row>
   </sheetData>
@@ -10978,7 +11070,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10992,10 +11084,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11003,7 +11095,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>3442.2</v>
@@ -11017,7 +11109,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>5264.84</v>
@@ -11031,7 +11123,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>1394.18</v>
@@ -11045,7 +11137,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>2502.76</v>
@@ -11059,7 +11151,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>523.46</v>
@@ -11073,7 +11165,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>2876.64</v>
@@ -11087,7 +11179,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>72967.52</v>
@@ -11101,7 +11193,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9">
         <v>266.44</v>
@@ -11115,7 +11207,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10">
         <v>29184.35</v>
@@ -11129,7 +11221,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>15211.08</v>
@@ -11143,7 +11235,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>12060.04</v>
@@ -11157,7 +11249,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13">
         <v>425.04</v>
@@ -11171,7 +11263,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>9279.440000000001</v>
@@ -11185,7 +11277,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15">
         <v>492.9</v>
@@ -11199,7 +11291,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16">
         <v>18533.02</v>
@@ -11213,7 +11305,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17">
         <v>2386.82</v>
@@ -11227,7 +11319,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>4964.28</v>
@@ -11241,7 +11333,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>10428.96</v>
@@ -11255,7 +11347,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>1958.84</v>
@@ -11269,7 +11361,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21">
         <v>4962.66</v>
@@ -11283,7 +11375,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <v>1967.76</v>
@@ -11297,7 +11389,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C23">
         <v>2181.68</v>
@@ -11311,7 +11403,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>888.72</v>
@@ -11325,7 +11417,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25">
         <v>32324.05</v>
@@ -11339,7 +11431,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>27248.69</v>
@@ -11353,7 +11445,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27">
         <v>10657.6</v>
@@ -11367,7 +11459,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28">
         <v>17733.2</v>
@@ -11381,7 +11473,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C29">
         <v>3553.6</v>
@@ -11395,7 +11487,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>10048.06</v>
@@ -11409,7 +11501,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31">
         <v>1188.36</v>
@@ -11423,7 +11515,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32">
         <v>7444.38</v>
@@ -11437,7 +11529,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33">
         <v>9552.200000000001</v>
@@ -11451,7 +11543,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C34">
         <v>2977.34</v>
@@ -11465,7 +11557,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35">
         <v>1427.8</v>
@@ -11479,7 +11571,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36">
         <v>16188.74</v>
@@ -11493,7 +11585,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37">
         <v>12340.99</v>
@@ -11507,7 +11599,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C38">
         <v>12370.01</v>
@@ -11521,7 +11613,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C39">
         <v>45154.5</v>
@@ -11535,7 +11627,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40">
         <v>3342.88</v>
@@ -11549,7 +11641,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41">
         <v>9900.34</v>
@@ -11563,7 +11655,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42">
         <v>2442.96</v>
@@ -11577,7 +11669,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C43">
         <v>9928.9</v>
@@ -11591,7 +11683,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44">
         <v>19423.88</v>
@@ -11605,7 +11697,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45">
         <v>22390.22</v>
@@ -11619,7 +11711,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C46">
         <v>1942.52</v>
@@ -11630,7 +11722,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47">
         <v>24035.26</v>
@@ -11644,7 +11736,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48">
         <v>55.72</v>
@@ -11658,7 +11750,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49">
         <v>2084.88</v>
@@ -11672,7 +11764,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50">
         <v>4883.32</v>
@@ -11686,7 +11778,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51">
         <v>6214.1</v>
@@ -11700,7 +11792,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52">
         <v>3636.5</v>
@@ -11714,7 +11806,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53">
         <v>37144.79</v>
@@ -11728,7 +11820,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54">
         <v>3386.52</v>
@@ -11742,7 +11834,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55">
         <v>10017.03</v>
@@ -11756,7 +11848,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C56">
         <v>1581.06</v>
@@ -11770,7 +11862,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57">
         <v>3629.18</v>
@@ -11784,7 +11876,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58">
         <v>866.28</v>
@@ -11798,7 +11890,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59">
         <v>278.68</v>
@@ -11809,7 +11901,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60">
         <v>20408.68</v>
@@ -11823,7 +11915,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C61">
         <v>20037.01</v>
@@ -11837,7 +11929,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62">
         <v>1605.86</v>
@@ -11851,7 +11943,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63">
         <v>9975.32</v>
@@ -11865,7 +11957,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64">
         <v>6973.04</v>
@@ -11879,7 +11971,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65">
         <v>3599.92</v>
@@ -11893,7 +11985,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66">
         <v>9990.040000000001</v>
@@ -11907,7 +11999,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67">
         <v>3481.32</v>
@@ -11921,7 +12013,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C68">
         <v>59.72</v>
@@ -11935,7 +12027,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69">
         <v>2425.16</v>
@@ -11949,7 +12041,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70">
         <v>330.1</v>
@@ -11963,7 +12055,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71">
         <v>2039.5</v>
@@ -11977,7 +12069,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C72">
         <v>4415.76</v>
@@ -11991,7 +12083,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73">
         <v>24320.87</v>
@@ -12005,7 +12097,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74">
         <v>3608.98</v>
@@ -12019,7 +12111,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75">
         <v>19961.7</v>
@@ -12033,7 +12125,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>2888.8</v>
@@ -12047,7 +12139,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77">
         <v>1708.18</v>
@@ -12061,7 +12153,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C78">
         <v>1168.9</v>
@@ -12075,7 +12167,7 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79">
         <v>7118.22</v>
@@ -12089,7 +12181,7 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80">
         <v>142.1</v>
@@ -12103,7 +12195,7 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C81">
         <v>3472.02</v>
@@ -12117,7 +12209,7 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C82">
         <v>19608</v>
@@ -12131,7 +12223,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83">
         <v>3698.82</v>
@@ -12145,7 +12237,7 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C84">
         <v>3976.24</v>
@@ -12159,7 +12251,7 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C85">
         <v>39805.19</v>
@@ -12173,7 +12265,7 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C86">
         <v>2186.56</v>
@@ -12187,7 +12279,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C87">
         <v>1810.92</v>
@@ -12201,7 +12293,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C88">
         <v>2873.1</v>
@@ -12215,7 +12307,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C89">
         <v>17764.88</v>
@@ -12229,7 +12321,7 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C90">
         <v>6814.36</v>
@@ -12243,7 +12335,7 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C91">
         <v>3409.48</v>
@@ -12257,7 +12349,7 @@
         <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C92">
         <v>9939.540000000001</v>
@@ -12271,7 +12363,7 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C93">
         <v>47647.41</v>
@@ -12285,7 +12377,7 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94">
         <v>553.74</v>
@@ -12299,7 +12391,7 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C95">
         <v>2462.82</v>
@@ -12313,7 +12405,7 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C96">
         <v>3008.02</v>
@@ -12327,7 +12419,7 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97">
         <v>3986.94</v>
@@ -12341,7 +12433,7 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C98">
         <v>3539.67</v>
@@ -12355,7 +12447,7 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99">
         <v>13495.52</v>
@@ -12369,13 +12461,13 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C100">
-        <v>4537.34</v>
+        <v>17101.24</v>
       </c>
       <c r="D100">
-        <v>3531</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -12383,13 +12475,13 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C101">
-        <v>3710.08</v>
+        <v>3652.22</v>
       </c>
       <c r="D101">
-        <v>2968</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -12397,13 +12489,13 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C102">
-        <v>3393.76</v>
+        <v>3710.08</v>
       </c>
       <c r="D102">
-        <v>4547</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -12411,13 +12503,13 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C103">
-        <v>44291.92</v>
+        <v>3393.76</v>
       </c>
       <c r="D103">
-        <v>3922</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -12425,13 +12517,13 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C104">
-        <v>1635.34</v>
+        <v>49430.9</v>
       </c>
       <c r="D104">
-        <v>3923</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -12439,13 +12531,13 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C105">
-        <v>2451.6</v>
+        <v>1635.34</v>
       </c>
       <c r="D105">
-        <v>3497</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -12453,13 +12545,13 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C106">
-        <v>1382.76</v>
+        <v>2931.86</v>
       </c>
       <c r="D106">
-        <v>3102</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -12467,13 +12559,13 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C107">
-        <v>2478.34</v>
+        <v>1649.08</v>
       </c>
       <c r="D107">
-        <v>3080</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -12481,13 +12573,13 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C108">
-        <v>10406.74</v>
+        <v>2971.98</v>
       </c>
       <c r="D108">
-        <v>3278</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -12495,13 +12587,13 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C109">
-        <v>7419.5</v>
+        <v>10406.74</v>
       </c>
       <c r="D109">
-        <v>3842</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -12509,13 +12601,13 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C110">
-        <v>6497.44</v>
+        <v>16370.44</v>
       </c>
       <c r="D110">
-        <v>3998</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -12523,13 +12615,27 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C111">
-        <v>10627.07</v>
+        <v>6497.44</v>
       </c>
       <c r="D111">
-        <v>5344</v>
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112">
+        <v>19434.85</v>
+      </c>
+      <c r="D112">
+        <v>5305</v>
       </c>
     </row>
   </sheetData>
